--- a/CST-247-SprintBurnDown1MICK.xlsx
+++ b/CST-247-SprintBurnDown1MICK.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cst-247\Milestone Submissions\Milestone1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\_repositories\Charp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -322,6 +325,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,9 +389,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Ideal burndown</c:v>
-          </c:tx>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -404,78 +410,43 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet1!$F$5:$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Day 10</c:v>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn Down Chart'!$F$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day 9</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 8</c:v>
+                  <c:v>24.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 7</c:v>
+                  <c:v>21.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Day 6</c:v>
+                  <c:v>18.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 5</c:v>
+                  <c:v>15.499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 4</c:v>
+                  <c:v>12.399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Day 3</c:v>
+                  <c:v>9.2999999999999954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 2</c:v>
+                  <c:v>6.1999999999999957</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 1</c:v>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>3.0999999999999956</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$19:$O$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -491,9 +462,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Actual burndown</c:v>
-          </c:tx>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -515,79 +483,44 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet1!$F$5:$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn Down Chart'!$F$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Day 10</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day 9</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 8</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 7</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Day 6</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 4</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Day 3</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 2</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Day 1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$20:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,6 +552,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -637,7 +573,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -1081,22 +1020,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" style="8" customWidth="1"/>
     <col min="3" max="3" width="21" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
@@ -1107,7 +1048,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1127,7 +1068,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -1177,7 +1118,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <v>1</v>
@@ -1195,39 +1136,39 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10"/>
@@ -1244,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -1259,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -1273,7 +1214,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <v>2</v>
@@ -1323,7 +1264,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
@@ -1371,7 +1312,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
@@ -1419,7 +1360,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <v>3</v>
@@ -1469,7 +1410,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <v>4</v>
@@ -1519,7 +1460,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <v>5</v>
@@ -1569,7 +1510,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
@@ -1577,7 +1518,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="4">
+      <c r="F12" s="16">
         <f>SUM(F4:F11)</f>
         <v>31</v>
       </c>
@@ -1613,18 +1554,17 @@
         <f t="shared" si="0"/>
         <v>6.1999999999999957</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>3.0999999999999956</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.4408920985006262E-15</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>11</v>
@@ -1637,49 +1577,49 @@
         <v>31</v>
       </c>
       <c r="G13" s="4">
-        <f>F13 - SUM(G4:G11)</f>
-        <v>30</v>
+        <f t="shared" ref="G13:P13" si="1">F13 - SUM(G4:G11)</f>
+        <v>31</v>
       </c>
       <c r="H13" s="4">
-        <f>G13 - SUM(H4:H11)</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="I13" s="4">
-        <f>H13 - SUM(I4:I11)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="J13" s="4">
-        <f>I13 - SUM(J4:J11)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="K13" s="4">
-        <f>J13 - SUM(K4:K11)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="L13" s="4">
-        <f>K13 - SUM(L4:L11)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="M13" s="4">
-        <f>L13 - SUM(M4:M11)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="N13" s="4">
-        <f>M13 - SUM(N4:N11)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="O13" s="4">
-        <f>N13 - SUM(O4:O11)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="P13" s="4">
-        <f>O13 - SUM(P4:P11)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1699,7 +1639,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1719,7 +1659,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1739,7 +1679,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1759,7 +1699,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1779,7 +1719,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1799,7 +1739,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1819,7 +1759,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1839,7 +1779,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1859,7 +1799,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1879,7 +1819,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1899,7 +1839,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1919,7 +1859,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1939,7 +1879,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1959,7 +1899,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1979,7 +1919,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1999,7 +1939,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2019,7 +1959,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2039,7 +1979,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2059,7 +1999,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2079,7 +2019,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2099,7 +2039,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2135,20 +2075,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="228" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -2156,7 +2096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -2180,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -2188,7 +2128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -2196,7 +2136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2220,63 +2160,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
@@ -2286,6 +2226,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2514,31 +2459,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
@@ -2591,7 +2512,34 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2610,31 +2558,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -2649,4 +2573,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>